--- a/data/trans_orig/P14C17-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C17-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32F667F1-8075-4195-8911-805C3742D060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5B31601-E471-49CE-AACB-78C2A94A4B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A81B7F5D-1590-48F7-8BD3-AEAA8666499F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3DF4A9BD-F146-4235-9076-A78DB30FACCB}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -89,7 +89,7 @@
     <t>73,48%</t>
   </si>
   <si>
-    <t>28,43%</t>
+    <t>28,86%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -122,7 +122,7 @@
     <t>26,52%</t>
   </si>
   <si>
-    <t>71,57%</t>
+    <t>71,14%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -131,19 +131,16 @@
     <t>24,51%</t>
   </si>
   <si>
-    <t>74,93%</t>
-  </si>
-  <si>
     <t>68,78%</t>
   </si>
   <si>
     <t>43,85%</t>
   </si>
   <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
   </si>
   <si>
     <t>50,89%</t>
@@ -155,22 +152,25 @@
     <t>42,3%</t>
   </si>
   <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
   </si>
   <si>
     <t>24,6%</t>
   </si>
   <si>
+    <t>75,07%</t>
+  </si>
+  <si>
     <t>44,41%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>57,75%</t>
+    <t>56,89%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -188,7 +188,7 @@
     <t>28,87%</t>
   </si>
   <si>
-    <t>72,8%</t>
+    <t>72,68%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -203,265 +203,268 @@
     <t>30,74%</t>
   </si>
   <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
     <t>75,09%</t>
   </si>
   <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
   </si>
   <si>
     <t>74,81%</t>
   </si>
   <si>
-    <t>52,23%</t>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
   </si>
   <si>
     <t>90,29%</t>
   </si>
   <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
     <t>22,3%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
   </si>
   <si>
     <t>26,03%</t>
   </si>
   <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -473,79 +476,76 @@
     <t>64,05%</t>
   </si>
   <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
   </si>
   <si>
     <t>67,32%</t>
   </si>
   <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
   </si>
   <si>
     <t>66,69%</t>
   </si>
   <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
   </si>
   <si>
     <t>25,94%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
+    <t>47,79%</t>
   </si>
   <si>
     <t>18,51%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
   </si>
   <si>
     <t>19,93%</t>
   </si>
   <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>32,37%</t>
+    <t>30,86%</t>
   </si>
   <si>
     <t>14,17%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
   </si>
   <si>
     <t>13,38%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -960,7 +960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B546C8-EB62-493B-B980-2F386A08E064}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB94FA9-0E53-4DCB-9EA7-31754F83EC10}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1296,7 +1296,7 @@
         <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -1305,7 +1305,7 @@
         <v>2213</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>19</v>
@@ -1320,13 +1320,13 @@
         <v>3230</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1341,7 +1341,7 @@
         <v>2110</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>19</v>
@@ -1356,7 +1356,7 @@
         <v>1004</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>19</v>
@@ -1371,13 +1371,13 @@
         <v>3115</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1392,13 +1392,13 @@
         <v>1020</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1717,13 +1717,13 @@
         <v>11093</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -1732,13 +1732,13 @@
         <v>14008</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1753,13 +1753,13 @@
         <v>1037</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1768,13 +1768,13 @@
         <v>943</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -1783,13 +1783,13 @@
         <v>1980</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1810,7 +1810,7 @@
         <v>20</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -1819,13 +1819,13 @@
         <v>2737</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -1834,13 +1834,13 @@
         <v>2737</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1896,7 +1896,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1923,13 +1923,13 @@
         <v>3267</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -1938,13 +1938,13 @@
         <v>4242</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1974,13 +1974,13 @@
         <v>1960</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -1989,13 +1989,13 @@
         <v>1960</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,13 +2025,13 @@
         <v>914</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2040,13 +2040,13 @@
         <v>914</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2102,7 +2102,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2117,7 +2117,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
@@ -2129,10 +2129,10 @@
         <v>3209</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>11</v>
@@ -2144,10 +2144,10 @@
         <v>6050</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>11</v>
@@ -2180,13 +2180,13 @@
         <v>1259</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -2195,13 +2195,13 @@
         <v>1259</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,7 +2237,7 @@
         <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2320,7 +2320,7 @@
         <v>1802</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>19</v>
@@ -2335,13 +2335,13 @@
         <v>14001</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M28" s="7">
         <v>15</v>
@@ -2350,13 +2350,13 @@
         <v>15803</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,13 +2386,13 @@
         <v>4084</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -2401,13 +2401,13 @@
         <v>4084</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,7 +2422,7 @@
         <v>892</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>19</v>
@@ -2437,13 +2437,13 @@
         <v>3086</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M30" s="7">
         <v>4</v>
@@ -2452,13 +2452,13 @@
         <v>3979</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,7 +2514,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2541,13 +2541,13 @@
         <v>15748</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M32" s="7">
         <v>14</v>
@@ -2556,13 +2556,13 @@
         <v>15748</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,13 +2592,13 @@
         <v>4519</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -2607,13 +2607,13 @@
         <v>5541</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,7 +2649,7 @@
         <v>20</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>20</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2732,13 @@
         <v>12231</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H36" s="7">
         <v>50</v>
@@ -2747,13 +2747,13 @@
         <v>54558</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M36" s="7">
         <v>62</v>
@@ -2762,13 +2762,13 @@
         <v>66789</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,10 +2783,10 @@
         <v>4953</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>155</v>

--- a/data/trans_orig/P14C17-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C17-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5B31601-E471-49CE-AACB-78C2A94A4B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5786FC4-DF36-4231-87A1-BCB886E796A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3DF4A9BD-F146-4235-9076-A78DB30FACCB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A494884D-2B43-48FC-AD54-A71382232D25}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="171">
-  <si>
-    <t>Población según el tiempo de diagnóstico del anemia en 2015 (Tasa respuesta: 1,45%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="167">
+  <si>
+    <t>Población según el tiempo de diagnóstico del anemia en 2016 (Tasa respuesta: 1,45%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -89,7 +89,7 @@
     <t>73,48%</t>
   </si>
   <si>
-    <t>28,86%</t>
+    <t>29,31%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -122,7 +122,7 @@
     <t>26,52%</t>
   </si>
   <si>
-    <t>71,14%</t>
+    <t>70,69%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -137,10 +137,10 @@
     <t>43,85%</t>
   </si>
   <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
   </si>
   <si>
     <t>50,89%</t>
@@ -152,10 +152,10 @@
     <t>42,3%</t>
   </si>
   <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
   </si>
   <si>
     <t>24,6%</t>
@@ -170,7 +170,7 @@
     <t>13,85%</t>
   </si>
   <si>
-    <t>56,89%</t>
+    <t>56,29%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -182,13 +182,13 @@
     <t>32,78%</t>
   </si>
   <si>
-    <t>69,14%</t>
+    <t>83,41%</t>
   </si>
   <si>
     <t>28,87%</t>
   </si>
   <si>
-    <t>72,68%</t>
+    <t>73,58%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -203,25 +203,25 @@
     <t>30,74%</t>
   </si>
   <si>
-    <t>75,11%</t>
+    <t>72,75%</t>
   </si>
   <si>
     <t>45,86%</t>
   </si>
   <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
   </si>
   <si>
     <t>40,39%</t>
   </si>
   <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -230,43 +230,37 @@
     <t>73,76%</t>
   </si>
   <si>
-    <t>22,47%</t>
-  </si>
-  <si>
     <t>75,09%</t>
   </si>
   <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
   </si>
   <si>
     <t>74,81%</t>
   </si>
   <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
   </si>
   <si>
     <t>26,24%</t>
   </si>
   <si>
-    <t>77,53%</t>
-  </si>
-  <si>
     <t>6,38%</t>
   </si>
   <si>
-    <t>27,99%</t>
+    <t>34,24%</t>
   </si>
   <si>
     <t>10,57%</t>
   </si>
   <si>
-    <t>32,21%</t>
+    <t>32,49%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -275,19 +269,19 @@
     <t>18,53%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
   </si>
   <si>
     <t>14,62%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -296,43 +290,43 @@
     <t>53,2%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
   </si>
   <si>
     <t>59,61%</t>
   </si>
   <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
   </si>
   <si>
     <t>31,92%</t>
   </si>
   <si>
-    <t>82,53%</t>
+    <t>81,25%</t>
   </si>
   <si>
     <t>27,55%</t>
   </si>
   <si>
-    <t>71,53%</t>
+    <t>71,59%</t>
   </si>
   <si>
     <t>14,89%</t>
   </si>
   <si>
-    <t>65,68%</t>
+    <t>68,8%</t>
   </si>
   <si>
     <t>12,85%</t>
   </si>
   <si>
-    <t>54,78%</t>
+    <t>54,65%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -344,25 +338,19 @@
     <t>71,81%</t>
   </si>
   <si>
-    <t>20,88%</t>
-  </si>
-  <si>
     <t>82,77%</t>
   </si>
   <si>
-    <t>36,45%</t>
+    <t>27,49%</t>
   </si>
   <si>
     <t>28,19%</t>
   </si>
   <si>
-    <t>79,12%</t>
-  </si>
-  <si>
     <t>17,23%</t>
   </si>
   <si>
-    <t>63,55%</t>
+    <t>72,51%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -374,37 +362,37 @@
     <t>66,13%</t>
   </si>
   <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
   </si>
   <si>
     <t>66,22%</t>
   </si>
   <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
   </si>
   <si>
     <t>19,29%</t>
   </si>
   <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
   </si>
   <si>
     <t>17,11%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
   </si>
   <si>
     <t>33,12%</t>
@@ -413,19 +401,19 @@
     <t>14,58%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
   </si>
   <si>
     <t>16,67%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -434,37 +422,34 @@
     <t>77,7%</t>
   </si>
   <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
   </si>
   <si>
     <t>73,97%</t>
   </si>
   <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
   </si>
   <si>
     <t>22,3%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
   </si>
   <si>
     <t>26,03%</t>
   </si>
   <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
+    <t>9,61%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -476,76 +461,79 @@
     <t>64,05%</t>
   </si>
   <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
   </si>
   <si>
     <t>67,32%</t>
   </si>
   <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
   </si>
   <si>
     <t>66,69%</t>
   </si>
   <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
   </si>
   <si>
     <t>25,94%</t>
   </si>
   <si>
-    <t>47,79%</t>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
   </si>
   <si>
     <t>18,51%</t>
   </si>
   <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
   </si>
   <si>
     <t>19,93%</t>
   </si>
   <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>30,86%</t>
+    <t>30,27%</t>
   </si>
   <si>
     <t>14,17%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
   </si>
   <si>
     <t>13,38%</t>
   </si>
   <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -960,7 +948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB94FA9-0E53-4DCB-9EA7-31754F83EC10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99195AA-5AD6-44A8-897A-2E1E2AFB29C2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1705,7 +1693,7 @@
         <v>63</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -1717,13 +1705,13 @@
         <v>11093</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -1732,13 +1720,13 @@
         <v>14008</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1753,13 +1741,13 @@
         <v>1037</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1768,13 +1756,13 @@
         <v>943</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -1783,13 +1771,13 @@
         <v>1980</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1810,7 +1798,7 @@
         <v>20</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -1819,13 +1807,13 @@
         <v>2737</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -1834,13 +1822,13 @@
         <v>2737</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1896,7 +1884,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1923,13 +1911,13 @@
         <v>3267</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -1938,13 +1926,13 @@
         <v>4242</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1974,13 +1962,13 @@
         <v>1960</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -1989,13 +1977,13 @@
         <v>1960</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,13 +2013,13 @@
         <v>914</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2040,13 +2028,13 @@
         <v>914</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2102,7 +2090,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2117,7 +2105,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
@@ -2129,10 +2117,10 @@
         <v>3209</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>11</v>
@@ -2144,10 +2132,10 @@
         <v>6050</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>11</v>
@@ -2180,13 +2168,13 @@
         <v>1259</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -2195,13 +2183,13 @@
         <v>1259</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,7 +2225,7 @@
         <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2308,7 +2296,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2320,7 +2308,7 @@
         <v>1802</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>19</v>
@@ -2335,13 +2323,13 @@
         <v>14001</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M28" s="7">
         <v>15</v>
@@ -2350,13 +2338,13 @@
         <v>15803</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,13 +2374,13 @@
         <v>4084</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -2401,13 +2389,13 @@
         <v>4084</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,7 +2410,7 @@
         <v>892</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>19</v>
@@ -2437,13 +2425,13 @@
         <v>3086</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M30" s="7">
         <v>4</v>
@@ -2452,13 +2440,13 @@
         <v>3979</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,7 +2502,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2541,13 +2529,13 @@
         <v>15748</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M32" s="7">
         <v>14</v>
@@ -2556,13 +2544,13 @@
         <v>15748</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,13 +2580,13 @@
         <v>4519</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -2607,13 +2595,13 @@
         <v>5541</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,7 +2637,7 @@
         <v>20</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -2664,7 +2652,7 @@
         <v>20</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2720,13 @@
         <v>12231</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H36" s="7">
         <v>50</v>
@@ -2747,13 +2735,13 @@
         <v>54558</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M36" s="7">
         <v>62</v>
@@ -2762,13 +2750,13 @@
         <v>66789</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,13 +2771,13 @@
         <v>4953</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H37" s="7">
         <v>14</v>
@@ -2798,13 +2786,13 @@
         <v>15003</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M37" s="7">
         <v>19</v>
@@ -2813,13 +2801,13 @@
         <v>19956</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2834,13 +2822,13 @@
         <v>1913</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H38" s="7">
         <v>12</v>
@@ -2849,13 +2837,13 @@
         <v>11485</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M38" s="7">
         <v>14</v>
@@ -2864,13 +2852,13 @@
         <v>13397</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,7 +2914,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
